--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Rodada 1</t>
   </si>
   <si>
     <t>Rodada 2</t>
+  </si>
+  <si>
+    <t>Rodada 3</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -473,23 +476,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -497,10 +503,13 @@
       <c r="C2">
         <v>93.0400390625</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>84.7001953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -508,10 +517,13 @@
       <c r="C3">
         <v>77.490234375</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>75.419921875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -519,10 +531,13 @@
       <c r="C4">
         <v>93.18994140625</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>62.89990234375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -530,10 +545,13 @@
       <c r="C5">
         <v>102.990234375</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>54.1201171875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -541,10 +559,13 @@
       <c r="C6">
         <v>76.18994140625</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>67.39990234375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -552,10 +573,13 @@
       <c r="C7">
         <v>59.219970703125</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>95.5498046875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -563,10 +587,13 @@
       <c r="C8">
         <v>71.22021484375</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>90.2001953125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -574,10 +601,13 @@
       <c r="C9">
         <v>86.39013671875</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>76.919921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -585,10 +615,13 @@
       <c r="C10">
         <v>95.2900390625</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>86.9501953125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>60.550048828125</v>
@@ -596,10 +629,13 @@
       <c r="C11">
         <v>96.990234375</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>71.39990234375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>67.68994140625</v>
@@ -607,10 +643,13 @@
       <c r="C12">
         <v>85.990234375</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>76.919921875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>72.3798828125</v>
@@ -618,10 +657,13 @@
       <c r="C13">
         <v>79.2900390625</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>82.169921875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>61.550048828125</v>
@@ -629,10 +671,13 @@
       <c r="C14">
         <v>99.39013671875</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>82.419921875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>63.5</v>
@@ -641,9 +686,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>73.77978515625</v>
@@ -651,10 +696,13 @@
       <c r="C16">
         <v>73.83984375</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>77.1201171875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>68.39990234375</v>
@@ -662,10 +710,13 @@
       <c r="C17">
         <v>72.89013671875</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>38.219970703125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>64.7900390625</v>
@@ -673,10 +724,13 @@
       <c r="C18">
         <v>94.47998046875</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>65.1201171875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>63.64990234375</v>
@@ -684,10 +738,13 @@
       <c r="C19">
         <v>67.68994140625</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>71.2001953125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>66.60009765625</v>
@@ -695,10 +752,13 @@
       <c r="C20">
         <v>73.31982421875</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>99.5498046875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>74.08984375</v>
@@ -706,10 +766,13 @@
       <c r="C21">
         <v>73.18994140625</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>68.419921875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>67.14013671875</v>
@@ -717,10 +780,13 @@
       <c r="C22">
         <v>67.81982421875</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>68.64990234375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>72.2900390625</v>
@@ -728,10 +794,13 @@
       <c r="C23">
         <v>56.820068359375</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>91.990234375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>69.4501953125</v>
@@ -739,10 +808,13 @@
       <c r="C24">
         <v>87.990234375</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>72.9501953125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>66.5</v>
@@ -750,10 +822,13 @@
       <c r="C25">
         <v>103.6201171875</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>76.89990234375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>61.14990234375</v>
@@ -761,10 +836,13 @@
       <c r="C26">
         <v>104.169921875</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>40.77001953125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>68.47998046875</v>
@@ -772,10 +850,13 @@
       <c r="C27">
         <v>81.1201171875</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>53.840087890625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>100.33984375</v>
@@ -783,10 +864,13 @@
       <c r="C28">
         <v>86.39013671875</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>86.7998046875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>72.240234375</v>
@@ -794,10 +878,13 @@
       <c r="C29">
         <v>103.18994140625</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>92.35009765625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>82.68017578125</v>
@@ -805,10 +892,13 @@
       <c r="C30">
         <v>82.02001953125</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>77.419921875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>77.0498046875</v>
@@ -816,10 +906,13 @@
       <c r="C31">
         <v>76.7900390625</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>67.52001953125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>64</v>
@@ -827,10 +920,13 @@
       <c r="C32">
         <v>72.68994140625</v>
       </c>
+      <c r="D32">
+        <v>81.52001953125</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>56.139892578125</v>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -52,6 +52,9 @@
     <t>PUXE FC</t>
   </si>
   <si>
+    <t xml:space="preserve">A Lenda Super Vasco F.c </t>
+  </si>
+  <si>
     <t>Super Vasco f.c</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>FBC Colorado</t>
-  </si>
-  <si>
-    <t>KillerColorado</t>
   </si>
 </sst>
 </file>
@@ -624,13 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>60.550048828125</v>
-      </c>
-      <c r="C11">
-        <v>96.990234375</v>
-      </c>
-      <c r="D11">
-        <v>71.39990234375</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -638,13 +632,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>67.68994140625</v>
+        <v>60.550048828125</v>
       </c>
       <c r="C12">
-        <v>85.990234375</v>
+        <v>96.990234375</v>
       </c>
       <c r="D12">
-        <v>76.919921875</v>
+        <v>71.39990234375</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -652,13 +646,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>72.3798828125</v>
+        <v>67.68994140625</v>
       </c>
       <c r="C13">
-        <v>79.2900390625</v>
+        <v>85.990234375</v>
       </c>
       <c r="D13">
-        <v>82.169921875</v>
+        <v>76.919921875</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -666,13 +660,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>61.550048828125</v>
+        <v>72.3798828125</v>
       </c>
       <c r="C14">
-        <v>99.39013671875</v>
+        <v>79.2900390625</v>
       </c>
       <c r="D14">
-        <v>82.419921875</v>
+        <v>82.169921875</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -680,10 +674,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>63.5</v>
+        <v>61.550048828125</v>
       </c>
       <c r="C15">
-        <v>46.919921875</v>
+        <v>99.39013671875</v>
+      </c>
+      <c r="D15">
+        <v>82.419921875</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -691,13 +688,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>73.77978515625</v>
+        <v>63.5</v>
       </c>
       <c r="C16">
-        <v>73.83984375</v>
-      </c>
-      <c r="D16">
-        <v>77.1201171875</v>
+        <v>46.919921875</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -705,13 +699,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>68.39990234375</v>
+        <v>73.77978515625</v>
       </c>
       <c r="C17">
-        <v>72.89013671875</v>
+        <v>73.83984375</v>
       </c>
       <c r="D17">
-        <v>38.219970703125</v>
+        <v>77.1201171875</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -719,13 +713,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>64.7900390625</v>
+        <v>68.39990234375</v>
       </c>
       <c r="C18">
-        <v>94.47998046875</v>
+        <v>72.89013671875</v>
       </c>
       <c r="D18">
-        <v>65.1201171875</v>
+        <v>38.219970703125</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -733,13 +727,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>63.64990234375</v>
+        <v>64.7900390625</v>
       </c>
       <c r="C19">
-        <v>67.68994140625</v>
+        <v>94.47998046875</v>
       </c>
       <c r="D19">
-        <v>71.2001953125</v>
+        <v>65.1201171875</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -747,13 +741,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>66.60009765625</v>
+        <v>63.64990234375</v>
       </c>
       <c r="C20">
-        <v>73.31982421875</v>
+        <v>67.68994140625</v>
       </c>
       <c r="D20">
-        <v>99.5498046875</v>
+        <v>71.2001953125</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -761,13 +755,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>74.08984375</v>
+        <v>66.60009765625</v>
       </c>
       <c r="C21">
-        <v>73.18994140625</v>
+        <v>73.31982421875</v>
       </c>
       <c r="D21">
-        <v>68.419921875</v>
+        <v>99.5498046875</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -775,13 +769,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>67.14013671875</v>
+        <v>74.08984375</v>
       </c>
       <c r="C22">
-        <v>67.81982421875</v>
+        <v>73.18994140625</v>
       </c>
       <c r="D22">
-        <v>68.64990234375</v>
+        <v>68.419921875</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -789,13 +783,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>72.2900390625</v>
+        <v>67.14013671875</v>
       </c>
       <c r="C23">
-        <v>56.820068359375</v>
+        <v>67.81982421875</v>
       </c>
       <c r="D23">
-        <v>91.990234375</v>
+        <v>68.64990234375</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -803,13 +797,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>69.4501953125</v>
+        <v>72.2900390625</v>
       </c>
       <c r="C24">
-        <v>87.990234375</v>
+        <v>56.820068359375</v>
       </c>
       <c r="D24">
-        <v>72.9501953125</v>
+        <v>91.990234375</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -817,13 +811,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>66.5</v>
+        <v>69.4501953125</v>
       </c>
       <c r="C25">
-        <v>103.6201171875</v>
+        <v>87.990234375</v>
       </c>
       <c r="D25">
-        <v>76.89990234375</v>
+        <v>72.9501953125</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -831,13 +825,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>61.14990234375</v>
+        <v>66.5</v>
       </c>
       <c r="C26">
-        <v>104.169921875</v>
+        <v>103.6201171875</v>
       </c>
       <c r="D26">
-        <v>40.77001953125</v>
+        <v>76.89990234375</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -845,13 +839,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>68.47998046875</v>
+        <v>61.14990234375</v>
       </c>
       <c r="C27">
-        <v>81.1201171875</v>
+        <v>104.169921875</v>
       </c>
       <c r="D27">
-        <v>53.840087890625</v>
+        <v>40.77001953125</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -859,13 +853,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>100.33984375</v>
+        <v>68.47998046875</v>
       </c>
       <c r="C28">
-        <v>86.39013671875</v>
+        <v>81.1201171875</v>
       </c>
       <c r="D28">
-        <v>86.7998046875</v>
+        <v>53.840087890625</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -873,13 +867,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>72.240234375</v>
+        <v>100.33984375</v>
       </c>
       <c r="C29">
-        <v>103.18994140625</v>
+        <v>86.39013671875</v>
       </c>
       <c r="D29">
-        <v>92.35009765625</v>
+        <v>86.7998046875</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -887,13 +881,13 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>82.68017578125</v>
+        <v>72.240234375</v>
       </c>
       <c r="C30">
-        <v>82.02001953125</v>
+        <v>103.18994140625</v>
       </c>
       <c r="D30">
-        <v>77.419921875</v>
+        <v>92.35009765625</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -901,13 +895,13 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>77.0498046875</v>
+        <v>82.68017578125</v>
       </c>
       <c r="C31">
-        <v>76.7900390625</v>
+        <v>82.02001953125</v>
       </c>
       <c r="D31">
-        <v>67.52001953125</v>
+        <v>77.419921875</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -915,21 +909,27 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>64</v>
+        <v>77.0498046875</v>
       </c>
       <c r="C32">
-        <v>72.68994140625</v>
+        <v>76.7900390625</v>
       </c>
       <c r="D32">
-        <v>81.52001953125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>67.52001953125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>56.139892578125</v>
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>72.68994140625</v>
+      </c>
+      <c r="D33">
+        <v>81.52001953125</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Rodada 3</t>
+  </si>
+  <si>
+    <t>Rodada 4</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -476,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,10 +495,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -506,10 +512,13 @@
       <c r="D2">
         <v>84.7001953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>84.47998046875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -520,10 +529,13 @@
       <c r="D3">
         <v>75.419921875</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>90.16015625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -534,10 +546,13 @@
       <c r="D4">
         <v>62.89990234375</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>85.16015625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -548,10 +563,13 @@
       <c r="D5">
         <v>54.1201171875</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>98.27001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -562,10 +580,13 @@
       <c r="D6">
         <v>67.39990234375</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>119.31005859375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -576,10 +597,13 @@
       <c r="D7">
         <v>95.5498046875</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>85.669921875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -590,10 +614,13 @@
       <c r="D8">
         <v>90.2001953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>112.81005859375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -604,10 +631,13 @@
       <c r="D9">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>63.820068359375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -618,18 +648,21 @@
       <c r="D10">
         <v>86.9501953125</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>85.009765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -640,10 +673,13 @@
       <c r="D12">
         <v>71.39990234375</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>90.6298828125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -654,10 +690,13 @@
       <c r="D13">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>79.85986328125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -668,10 +707,13 @@
       <c r="D14">
         <v>82.169921875</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>104.93017578125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -682,10 +724,13 @@
       <c r="D15">
         <v>82.419921875</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>122.259765625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -694,9 +739,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -707,10 +752,13 @@
       <c r="D17">
         <v>77.1201171875</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>88.31982421875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -722,9 +770,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -735,10 +783,13 @@
       <c r="D19">
         <v>65.1201171875</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>108.16015625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -749,10 +800,13 @@
       <c r="D20">
         <v>71.2001953125</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>136.2099609375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -763,10 +817,13 @@
       <c r="D21">
         <v>99.5498046875</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>94.8701171875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -777,10 +834,13 @@
       <c r="D22">
         <v>68.419921875</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>109.06005859375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -791,10 +851,13 @@
       <c r="D23">
         <v>68.64990234375</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>77.35986328125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -805,10 +868,13 @@
       <c r="D24">
         <v>91.990234375</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>62.219970703125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -819,10 +885,13 @@
       <c r="D25">
         <v>72.9501953125</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>94.56005859375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -833,10 +902,13 @@
       <c r="D26">
         <v>76.89990234375</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>76.509765625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -847,10 +919,13 @@
       <c r="D27">
         <v>40.77001953125</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>51.6298828125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -861,10 +936,13 @@
       <c r="D28">
         <v>53.840087890625</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>60.929931640625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -875,10 +953,13 @@
       <c r="D29">
         <v>86.7998046875</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>79.580078125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -889,10 +970,13 @@
       <c r="D30">
         <v>92.35009765625</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>75.6298828125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -903,10 +987,13 @@
       <c r="D31">
         <v>77.419921875</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>82.72998046875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -917,10 +1004,13 @@
       <c r="D32">
         <v>67.52001953125</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>95.3798828125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -930,6 +1020,9 @@
       </c>
       <c r="D33">
         <v>81.52001953125</v>
+      </c>
+      <c r="E33">
+        <v>78.6201171875</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Rodada 4</t>
+  </si>
+  <si>
+    <t>Rodada 5</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -479,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +501,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -515,10 +521,13 @@
       <c r="E2">
         <v>84.47998046875</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>72.60986328125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -532,10 +541,13 @@
       <c r="E3">
         <v>90.16015625</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>81.02001953125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -549,10 +561,13 @@
       <c r="E4">
         <v>85.16015625</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>68.419921875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -566,10 +581,13 @@
       <c r="E5">
         <v>98.27001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>92.72998046875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -583,10 +601,13 @@
       <c r="E6">
         <v>119.31005859375</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>86.6201171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -600,10 +621,13 @@
       <c r="E7">
         <v>85.669921875</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>86.02978515625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -617,10 +641,13 @@
       <c r="E8">
         <v>112.81005859375</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>71.31005859375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -634,10 +661,13 @@
       <c r="E9">
         <v>63.820068359375</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>80.3798828125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -651,18 +681,21 @@
       <c r="E10">
         <v>85.009765625</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>73.919921875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -676,10 +709,13 @@
       <c r="E12">
         <v>90.6298828125</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>85.31982421875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -693,10 +729,13 @@
       <c r="E13">
         <v>79.85986328125</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>71.31982421875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -710,10 +749,13 @@
       <c r="E14">
         <v>104.93017578125</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>66.22021484375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -727,10 +769,13 @@
       <c r="E15">
         <v>122.259765625</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>63.39990234375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -739,9 +784,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -755,10 +800,13 @@
       <c r="E17">
         <v>88.31982421875</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>76.419921875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -770,9 +818,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -786,10 +834,13 @@
       <c r="E19">
         <v>108.16015625</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>83.47998046875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -803,10 +854,13 @@
       <c r="E20">
         <v>136.2099609375</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>103.56982421875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -820,10 +874,13 @@
       <c r="E21">
         <v>94.8701171875</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>83.02978515625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -837,10 +894,13 @@
       <c r="E22">
         <v>109.06005859375</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>87.27001953125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -854,10 +914,13 @@
       <c r="E23">
         <v>77.35986328125</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>59.919921875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -871,10 +934,13 @@
       <c r="E24">
         <v>62.219970703125</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>72.02001953125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -888,10 +954,13 @@
       <c r="E25">
         <v>94.56005859375</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>91.02001953125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -905,10 +974,13 @@
       <c r="E26">
         <v>76.509765625</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>70.41015625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -923,9 +995,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -939,10 +1011,13 @@
       <c r="E28">
         <v>60.929931640625</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>72.330078125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -956,10 +1031,13 @@
       <c r="E29">
         <v>79.580078125</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>73.009765625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -973,10 +1051,13 @@
       <c r="E30">
         <v>75.6298828125</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>84.60986328125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -990,10 +1071,13 @@
       <c r="E31">
         <v>82.72998046875</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>86.77001953125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1007,10 +1091,13 @@
       <c r="E32">
         <v>95.3798828125</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>88.56982421875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1023,6 +1110,9 @@
       </c>
       <c r="E33">
         <v>78.6201171875</v>
+      </c>
+      <c r="F33">
+        <v>69.3798828125</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Rodada 5</t>
+  </si>
+  <si>
+    <t>Rodada 6</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -482,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,10 +507,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -524,10 +530,13 @@
       <c r="F2">
         <v>72.60986328125</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>99.56005859375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -544,10 +553,13 @@
       <c r="F3">
         <v>81.02001953125</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>92.06005859375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -564,10 +576,13 @@
       <c r="F4">
         <v>68.419921875</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>106.14990234375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -584,10 +599,13 @@
       <c r="F5">
         <v>92.72998046875</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>75.259765625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -604,10 +622,13 @@
       <c r="F6">
         <v>86.6201171875</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>104.2001953125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -624,10 +645,13 @@
       <c r="F7">
         <v>86.02978515625</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>78.919921875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -644,10 +668,13 @@
       <c r="F8">
         <v>71.31005859375</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>58.300048828125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -664,10 +691,13 @@
       <c r="F9">
         <v>80.3798828125</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>103.66015625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -684,18 +714,21 @@
       <c r="F10">
         <v>73.919921875</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>88.759765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -712,10 +745,13 @@
       <c r="F12">
         <v>85.31982421875</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>100.85986328125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -732,10 +768,13 @@
       <c r="F13">
         <v>71.31982421875</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>119.85009765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -752,10 +791,13 @@
       <c r="F14">
         <v>66.22021484375</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>108.56005859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -772,10 +814,13 @@
       <c r="F15">
         <v>63.39990234375</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>88.35986328125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -784,9 +829,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -803,10 +848,13 @@
       <c r="F17">
         <v>76.419921875</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -818,9 +866,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -837,10 +885,13 @@
       <c r="F19">
         <v>83.47998046875</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>82.64990234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -857,10 +908,13 @@
       <c r="F20">
         <v>103.56982421875</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>78.56005859375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -877,10 +931,13 @@
       <c r="F21">
         <v>83.02978515625</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>86.06005859375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -897,10 +954,13 @@
       <c r="F22">
         <v>87.27001953125</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>106.06005859375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -918,9 +978,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -937,10 +997,13 @@
       <c r="F24">
         <v>72.02001953125</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>48.840087890625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -957,10 +1020,13 @@
       <c r="F25">
         <v>91.02001953125</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>106.14990234375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -977,10 +1043,13 @@
       <c r="F26">
         <v>70.41015625</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>110.35986328125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -995,9 +1064,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1014,10 +1083,13 @@
       <c r="F28">
         <v>72.330078125</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>95.31982421875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1034,10 +1106,13 @@
       <c r="F29">
         <v>73.009765625</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>78.85986328125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1054,10 +1129,13 @@
       <c r="F30">
         <v>84.60986328125</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>98.06005859375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1074,10 +1152,13 @@
       <c r="F31">
         <v>86.77001953125</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>86.9599609375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1094,10 +1175,13 @@
       <c r="F32">
         <v>88.56982421875</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>87.759765625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1113,6 +1197,9 @@
       </c>
       <c r="F33">
         <v>69.3798828125</v>
+      </c>
+      <c r="G33">
+        <v>92.0498046875</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Rodada 6</t>
+  </si>
+  <si>
+    <t>Rodada 7</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -485,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,10 +513,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -533,10 +539,13 @@
       <c r="G2">
         <v>99.56005859375</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>87.66015625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -556,10 +565,13 @@
       <c r="G3">
         <v>92.06005859375</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>104.31005859375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -579,10 +591,13 @@
       <c r="G4">
         <v>106.14990234375</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>111.85986328125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -602,10 +617,13 @@
       <c r="G5">
         <v>75.259765625</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>80.14013671875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -625,10 +643,13 @@
       <c r="G6">
         <v>104.2001953125</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>106.490234375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -648,10 +669,13 @@
       <c r="G7">
         <v>78.919921875</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>93.740234375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -671,10 +695,13 @@
       <c r="G8">
         <v>58.300048828125</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>99.39013671875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -694,10 +721,13 @@
       <c r="G9">
         <v>103.66015625</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>91.5400390625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -717,18 +747,21 @@
       <c r="G10">
         <v>88.759765625</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>96.10986328125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -748,10 +781,13 @@
       <c r="G12">
         <v>100.85986328125</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>96.39013671875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -771,10 +807,13 @@
       <c r="G13">
         <v>119.85009765625</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>98.7099609375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -794,10 +833,13 @@
       <c r="G14">
         <v>108.56005859375</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>87.7099609375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -817,10 +859,13 @@
       <c r="G15">
         <v>88.35986328125</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>91.509765625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -829,9 +874,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -851,10 +896,13 @@
       <c r="G17">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>98.7900390625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -866,9 +914,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -888,10 +936,13 @@
       <c r="G19">
         <v>82.64990234375</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>98.18994140625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -911,10 +962,13 @@
       <c r="G20">
         <v>78.56005859375</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>119.89013671875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -934,10 +988,13 @@
       <c r="G21">
         <v>86.06005859375</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>105.7099609375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -957,10 +1014,13 @@
       <c r="G22">
         <v>106.06005859375</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>127.759765625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -978,9 +1038,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1001,9 +1061,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1023,10 +1083,13 @@
       <c r="G25">
         <v>106.14990234375</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>113.89013671875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1046,10 +1109,13 @@
       <c r="G26">
         <v>110.35986328125</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>93.5400390625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1064,9 +1130,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1086,10 +1152,13 @@
       <c r="G28">
         <v>95.31982421875</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>86.08984375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1109,10 +1178,13 @@
       <c r="G29">
         <v>78.85986328125</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>90.35986328125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1132,10 +1204,13 @@
       <c r="G30">
         <v>98.06005859375</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>85.68994140625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1155,10 +1230,13 @@
       <c r="G31">
         <v>86.9599609375</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>79.7001953125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1178,10 +1256,13 @@
       <c r="G32">
         <v>87.759765625</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>85.009765625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1200,6 +1281,9 @@
       </c>
       <c r="G33">
         <v>92.0498046875</v>
+      </c>
+      <c r="H33">
+        <v>94.58984375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Rodada 7</t>
+  </si>
+  <si>
+    <t>Rodada 8</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -488,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +519,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -542,10 +548,13 @@
       <c r="H2">
         <v>87.66015625</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>98.4501953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -568,10 +577,13 @@
       <c r="H3">
         <v>104.31005859375</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>98.490234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -594,10 +606,13 @@
       <c r="H4">
         <v>111.85986328125</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>150.9501953125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -620,10 +635,13 @@
       <c r="H5">
         <v>80.14013671875</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>82.7001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -646,10 +664,13 @@
       <c r="H6">
         <v>106.490234375</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>135.1904296875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -672,10 +693,13 @@
       <c r="H7">
         <v>93.740234375</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>73.509765625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -698,10 +722,13 @@
       <c r="H8">
         <v>99.39013671875</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>68.89013671875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -724,10 +751,13 @@
       <c r="H9">
         <v>91.5400390625</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>83.68994140625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -750,18 +780,21 @@
       <c r="H10">
         <v>96.10986328125</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>103.93017578125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -784,10 +817,13 @@
       <c r="H12">
         <v>96.39013671875</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>121.93994140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -810,10 +846,13 @@
       <c r="H13">
         <v>98.7099609375</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>109.14990234375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -836,10 +875,13 @@
       <c r="H14">
         <v>87.7099609375</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>118.4501953125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -862,10 +904,13 @@
       <c r="H15">
         <v>91.509765625</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>131.349609375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -874,9 +919,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -899,10 +944,13 @@
       <c r="H17">
         <v>98.7900390625</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>76.33984375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -914,9 +962,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -939,10 +987,13 @@
       <c r="H19">
         <v>98.18994140625</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>92.490234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -965,10 +1016,13 @@
       <c r="H20">
         <v>119.89013671875</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>93.0400390625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -991,10 +1045,13 @@
       <c r="H21">
         <v>105.7099609375</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>97.39013671875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1017,10 +1074,13 @@
       <c r="H22">
         <v>127.759765625</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>139.400390625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1038,9 +1098,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1061,9 +1121,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1086,10 +1146,13 @@
       <c r="H25">
         <v>113.89013671875</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>135.490234375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1112,10 +1175,13 @@
       <c r="H26">
         <v>93.5400390625</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>112.35009765625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1130,9 +1196,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1155,10 +1221,13 @@
       <c r="H28">
         <v>86.08984375</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>46.89990234375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1181,10 +1250,13 @@
       <c r="H29">
         <v>90.35986328125</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>98.14990234375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1207,10 +1279,13 @@
       <c r="H30">
         <v>85.68994140625</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>110.14990234375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1234,9 +1309,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1259,10 +1334,13 @@
       <c r="H32">
         <v>85.009765625</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>80.64013671875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1284,6 +1362,9 @@
       </c>
       <c r="H33">
         <v>94.58984375</v>
+      </c>
+      <c r="I33">
+        <v>122.83984375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Rodada 8</t>
+  </si>
+  <si>
+    <t>Rodada 9</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -491,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +525,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -551,10 +557,13 @@
       <c r="I2">
         <v>98.4501953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>60.419921875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -580,10 +589,13 @@
       <c r="I3">
         <v>98.490234375</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>62.969970703125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -609,10 +621,13 @@
       <c r="I4">
         <v>150.9501953125</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>95.919921875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -638,10 +653,13 @@
       <c r="I5">
         <v>82.7001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>102.7001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -667,10 +685,13 @@
       <c r="I6">
         <v>135.1904296875</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>74.31982421875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -696,10 +717,13 @@
       <c r="I7">
         <v>73.509765625</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -725,10 +749,13 @@
       <c r="I8">
         <v>68.89013671875</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>98.2001953125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -754,10 +781,13 @@
       <c r="I9">
         <v>83.68994140625</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>67.68017578125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -783,18 +813,21 @@
       <c r="I10">
         <v>103.93017578125</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>77.89990234375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -820,10 +853,13 @@
       <c r="I12">
         <v>121.93994140625</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -849,10 +885,13 @@
       <c r="I13">
         <v>109.14990234375</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>83.89990234375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -878,10 +917,13 @@
       <c r="I14">
         <v>118.4501953125</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>69.14990234375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -907,10 +949,13 @@
       <c r="I15">
         <v>131.349609375</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>59.77001953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -919,9 +964,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -947,10 +992,13 @@
       <c r="I17">
         <v>76.33984375</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>81.7001953125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -962,9 +1010,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -990,10 +1038,13 @@
       <c r="I19">
         <v>92.490234375</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>91.56982421875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1019,10 +1070,13 @@
       <c r="I20">
         <v>93.0400390625</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>68.35009765625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1048,10 +1102,13 @@
       <c r="I21">
         <v>97.39013671875</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>75.5498046875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1077,10 +1134,13 @@
       <c r="I22">
         <v>139.400390625</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>78.31982421875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1098,9 +1158,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1121,9 +1181,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1149,10 +1209,13 @@
       <c r="I25">
         <v>135.490234375</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>56.8701171875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1178,10 +1241,13 @@
       <c r="I26">
         <v>112.35009765625</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>76.02001953125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1196,9 +1262,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1225,9 +1291,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1253,10 +1319,13 @@
       <c r="I29">
         <v>98.14990234375</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>65.419921875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1282,10 +1351,13 @@
       <c r="I30">
         <v>110.14990234375</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>62.1201171875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1309,9 +1381,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1337,10 +1409,13 @@
       <c r="I32">
         <v>80.64013671875</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>68.06982421875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1365,6 +1440,9 @@
       </c>
       <c r="I33">
         <v>122.83984375</v>
+      </c>
+      <c r="J33">
+        <v>58.919921875</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Rodada 9</t>
+  </si>
+  <si>
+    <t>Rodada 10</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -494,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,10 +531,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -560,10 +566,13 @@
       <c r="J2">
         <v>60.419921875</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>40.77001953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -592,10 +601,13 @@
       <c r="J3">
         <v>62.969970703125</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>66.06982421875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -624,10 +636,13 @@
       <c r="J4">
         <v>95.919921875</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>69.27001953125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -656,10 +671,13 @@
       <c r="J5">
         <v>102.7001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>78.52001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -688,10 +706,13 @@
       <c r="J6">
         <v>74.31982421875</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>79.8701171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -720,10 +741,13 @@
       <c r="J7">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>53.3701171875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -752,10 +776,13 @@
       <c r="J8">
         <v>98.2001953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>54.469970703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -784,10 +811,13 @@
       <c r="J9">
         <v>67.68017578125</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -816,18 +846,21 @@
       <c r="J10">
         <v>77.89990234375</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>61.469970703125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -856,10 +889,13 @@
       <c r="J12">
         <v>73.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>76.97021484375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -888,10 +924,13 @@
       <c r="J13">
         <v>83.89990234375</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>73.669921875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -920,10 +959,13 @@
       <c r="J14">
         <v>69.14990234375</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>57.169921875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -952,10 +994,13 @@
       <c r="J15">
         <v>59.77001953125</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>60.77001953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -964,9 +1009,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -995,10 +1040,13 @@
       <c r="J17">
         <v>81.7001953125</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>68.669921875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1010,9 +1058,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1041,10 +1089,13 @@
       <c r="J19">
         <v>91.56982421875</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>66.47021484375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1073,10 +1124,13 @@
       <c r="J20">
         <v>68.35009765625</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1105,10 +1159,13 @@
       <c r="J21">
         <v>75.5498046875</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>83.8701171875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1137,10 +1194,13 @@
       <c r="J22">
         <v>78.31982421875</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>54.27001953125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1158,9 +1218,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1181,9 +1241,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1213,9 +1273,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1244,10 +1304,13 @@
       <c r="J26">
         <v>76.02001953125</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>65.47021484375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1262,9 +1325,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1291,9 +1354,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1322,10 +1385,13 @@
       <c r="J29">
         <v>65.419921875</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>53.969970703125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1354,10 +1420,13 @@
       <c r="J30">
         <v>62.1201171875</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>57.6201171875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1381,9 +1450,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1412,10 +1481,13 @@
       <c r="J32">
         <v>68.06982421875</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>61.070068359375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1443,6 +1515,9 @@
       </c>
       <c r="J33">
         <v>58.919921875</v>
+      </c>
+      <c r="K33">
+        <v>68.97021484375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Rodada 10</t>
+  </si>
+  <si>
+    <t>Rodada 11</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -497,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,10 +537,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -570,9 +576,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -604,10 +610,13 @@
       <c r="K3">
         <v>66.06982421875</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>110.41015625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -639,10 +648,13 @@
       <c r="K4">
         <v>69.27001953125</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>114.5400390625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -674,10 +686,13 @@
       <c r="K5">
         <v>78.52001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>92.4599609375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -709,10 +724,13 @@
       <c r="K6">
         <v>79.8701171875</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>105.5400390625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -745,9 +763,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -779,10 +797,13 @@
       <c r="K8">
         <v>54.469970703125</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>82.259765625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -814,10 +835,13 @@
       <c r="K9">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>120.5498046875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -849,18 +873,21 @@
       <c r="K10">
         <v>61.469970703125</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>93.2099609375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -892,10 +919,13 @@
       <c r="K12">
         <v>76.97021484375</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>124.47021484375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -927,10 +957,13 @@
       <c r="K13">
         <v>73.669921875</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>110.509765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -962,10 +995,13 @@
       <c r="K14">
         <v>57.169921875</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>118.31005859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -997,10 +1033,13 @@
       <c r="K15">
         <v>60.77001953125</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>122.41015625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1009,9 +1048,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1043,10 +1082,13 @@
       <c r="K17">
         <v>68.669921875</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>72.16015625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1058,9 +1100,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1092,10 +1134,13 @@
       <c r="K19">
         <v>66.47021484375</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>125.60986328125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1127,10 +1172,13 @@
       <c r="K20">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>123.919921875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1162,10 +1210,13 @@
       <c r="K21">
         <v>83.8701171875</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>96.919921875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1197,10 +1248,13 @@
       <c r="K22">
         <v>54.27001953125</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>84.740234375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1218,9 +1272,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1241,9 +1295,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1273,9 +1327,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1307,10 +1361,13 @@
       <c r="K26">
         <v>65.47021484375</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>77.41015625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1325,9 +1382,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1354,9 +1411,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1388,10 +1445,13 @@
       <c r="K29">
         <v>53.969970703125</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1423,10 +1483,13 @@
       <c r="K30">
         <v>57.6201171875</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>69.14990234375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1450,9 +1513,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1484,10 +1547,13 @@
       <c r="K32">
         <v>61.070068359375</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>91.009765625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1518,6 +1584,9 @@
       </c>
       <c r="K33">
         <v>68.97021484375</v>
+      </c>
+      <c r="L33">
+        <v>114.7099609375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Rodada 11</t>
+  </si>
+  <si>
+    <t>Rodada 12</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -500,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,10 +543,13 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -576,9 +582,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -613,10 +619,13 @@
       <c r="L3">
         <v>110.41015625</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>56.260009765625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -651,10 +660,13 @@
       <c r="L4">
         <v>114.5400390625</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>62.260009765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -689,10 +701,13 @@
       <c r="L5">
         <v>92.4599609375</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>56.4599609375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -727,10 +742,13 @@
       <c r="L6">
         <v>105.5400390625</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>69.91015625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -763,9 +781,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -800,10 +818,13 @@
       <c r="L8">
         <v>82.259765625</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>44.77001953125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -838,10 +859,13 @@
       <c r="L9">
         <v>120.5498046875</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>66.9599609375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -876,18 +900,21 @@
       <c r="L10">
         <v>93.2099609375</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>58.840087890625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -922,10 +949,13 @@
       <c r="L12">
         <v>124.47021484375</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>62.760009765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -960,10 +990,13 @@
       <c r="L13">
         <v>110.509765625</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>69.259765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -998,10 +1031,13 @@
       <c r="L14">
         <v>118.31005859375</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>65.81005859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -1036,10 +1072,13 @@
       <c r="L15">
         <v>122.41015625</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>65.85986328125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1048,9 +1087,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1086,9 +1125,9 @@
         <v>72.16015625</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1100,9 +1139,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1137,10 +1176,13 @@
       <c r="L19">
         <v>125.60986328125</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>55.760009765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1175,10 +1217,13 @@
       <c r="L20">
         <v>123.919921875</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>40.739990234375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1213,10 +1258,13 @@
       <c r="L21">
         <v>96.919921875</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>50.10009765625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1251,10 +1299,13 @@
       <c r="L22">
         <v>84.740234375</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>59.47998046875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1272,9 +1323,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1295,9 +1346,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1327,9 +1378,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1364,10 +1415,13 @@
       <c r="L26">
         <v>77.41015625</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>67.31005859375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1382,9 +1436,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1411,9 +1465,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1448,10 +1502,13 @@
       <c r="L29">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>44.4599609375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1487,9 +1544,9 @@
         <v>69.14990234375</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1513,9 +1570,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1550,10 +1607,13 @@
       <c r="L32">
         <v>91.009765625</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>75.85986328125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1587,6 +1647,9 @@
       </c>
       <c r="L33">
         <v>114.7099609375</v>
+      </c>
+      <c r="M33">
+        <v>95.66015625</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Rodada 12</t>
+  </si>
+  <si>
+    <t>Rodada 13</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -503,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +549,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -582,9 +588,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -622,10 +628,13 @@
       <c r="M3">
         <v>56.260009765625</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>107.64990234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -663,10 +672,13 @@
       <c r="M4">
         <v>62.260009765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>96.509765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -704,10 +716,13 @@
       <c r="M5">
         <v>56.4599609375</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>70.2099609375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -745,10 +760,13 @@
       <c r="M6">
         <v>69.91015625</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>118.740234375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -781,9 +799,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -821,10 +839,13 @@
       <c r="M8">
         <v>44.77001953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>110.41015625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -862,10 +883,13 @@
       <c r="M9">
         <v>66.9599609375</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>117.509765625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -903,18 +927,21 @@
       <c r="M10">
         <v>58.840087890625</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>128.0400390625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -952,10 +979,13 @@
       <c r="M12">
         <v>62.760009765625</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>93.509765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -993,10 +1023,13 @@
       <c r="M13">
         <v>69.259765625</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>111.91015625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -1034,10 +1067,13 @@
       <c r="M14">
         <v>65.81005859375</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>117.10986328125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -1075,10 +1111,13 @@
       <c r="M15">
         <v>65.85986328125</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>133.0498046875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1087,9 +1126,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1125,9 +1164,9 @@
         <v>72.16015625</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1139,9 +1178,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1179,10 +1218,13 @@
       <c r="M19">
         <v>55.760009765625</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>113.509765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1221,9 +1263,9 @@
         <v>40.739990234375</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1261,10 +1303,13 @@
       <c r="M21">
         <v>50.10009765625</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>79.41015625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1302,10 +1347,13 @@
       <c r="M22">
         <v>59.47998046875</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>120.8701171875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1323,9 +1371,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1346,9 +1394,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1378,9 +1426,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1418,10 +1466,13 @@
       <c r="M26">
         <v>67.31005859375</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>119.41015625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1436,9 +1487,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1465,9 +1516,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1506,9 +1557,9 @@
         <v>44.4599609375</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1544,9 +1595,9 @@
         <v>69.14990234375</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1570,9 +1621,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1610,10 +1661,13 @@
       <c r="M32">
         <v>75.85986328125</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>124.31005859375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1650,6 +1704,9 @@
       </c>
       <c r="M33">
         <v>95.66015625</v>
+      </c>
+      <c r="N33">
+        <v>130.2099609375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Rodada 13</t>
+  </si>
+  <si>
+    <t>Rodada 14</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -506,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,10 +555,13 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -588,9 +594,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -631,10 +637,13 @@
       <c r="N3">
         <v>107.64990234375</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>78.3798828125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -675,10 +684,13 @@
       <c r="N4">
         <v>96.509765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>64.7998046875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -720,9 +732,9 @@
         <v>70.2099609375</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -763,10 +775,13 @@
       <c r="N6">
         <v>118.740234375</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>75.39990234375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -799,9 +814,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -842,10 +857,13 @@
       <c r="N8">
         <v>110.41015625</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>68.89990234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -886,10 +904,13 @@
       <c r="N9">
         <v>117.509765625</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>68.919921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -930,18 +951,21 @@
       <c r="N10">
         <v>128.0400390625</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>74.2998046875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -982,10 +1006,13 @@
       <c r="N12">
         <v>93.509765625</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>81.89990234375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -1026,10 +1053,13 @@
       <c r="N13">
         <v>111.91015625</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>74.2001953125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -1070,10 +1100,13 @@
       <c r="N14">
         <v>117.10986328125</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>73.10009765625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -1114,10 +1147,13 @@
       <c r="N15">
         <v>133.0498046875</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>80.89990234375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1126,9 +1162,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1164,9 +1200,9 @@
         <v>72.16015625</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1178,9 +1214,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1221,10 +1257,13 @@
       <c r="N19">
         <v>113.509765625</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>66.39990234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1263,9 +1302,9 @@
         <v>40.739990234375</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1307,9 +1346,9 @@
         <v>79.41015625</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1350,10 +1389,13 @@
       <c r="N22">
         <v>120.8701171875</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>75.7998046875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1371,9 +1413,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1394,9 +1436,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1426,9 +1468,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1469,10 +1511,13 @@
       <c r="N26">
         <v>119.41015625</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>73.39990234375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1487,9 +1532,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1516,9 +1561,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1557,9 +1602,9 @@
         <v>44.4599609375</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1595,9 +1640,9 @@
         <v>69.14990234375</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1621,9 +1666,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1664,10 +1709,13 @@
       <c r="N32">
         <v>124.31005859375</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1707,6 +1755,9 @@
       </c>
       <c r="N33">
         <v>130.2099609375</v>
+      </c>
+      <c r="O33">
+        <v>72.39990234375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Rodada 14</t>
+  </si>
+  <si>
+    <t>Rodada 15</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -509,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,10 +561,13 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -594,9 +600,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -640,10 +646,13 @@
       <c r="O3">
         <v>78.3798828125</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>88.490234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -688,9 +697,9 @@
         <v>64.7998046875</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -732,9 +741,9 @@
         <v>70.2099609375</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -778,10 +787,13 @@
       <c r="O6">
         <v>75.39990234375</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>104.2001953125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -814,9 +826,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -860,10 +872,13 @@
       <c r="O8">
         <v>68.89990234375</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>108.7001953125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -907,10 +922,13 @@
       <c r="O9">
         <v>68.919921875</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>92.68994140625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -954,18 +972,21 @@
       <c r="O10">
         <v>74.2998046875</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -1009,10 +1030,13 @@
       <c r="O12">
         <v>81.89990234375</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>100.10009765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -1056,10 +1080,13 @@
       <c r="O13">
         <v>74.2001953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>101.7998046875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -1103,10 +1130,13 @@
       <c r="O14">
         <v>73.10009765625</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -1150,10 +1180,13 @@
       <c r="O15">
         <v>80.89990234375</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>81.2001953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1162,9 +1195,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1200,9 +1233,9 @@
         <v>72.16015625</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1214,9 +1247,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1261,9 +1294,9 @@
         <v>66.39990234375</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1302,9 +1335,9 @@
         <v>40.739990234375</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1346,9 +1379,9 @@
         <v>79.41015625</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1392,10 +1425,13 @@
       <c r="O22">
         <v>75.7998046875</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>89.7998046875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1413,9 +1449,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1436,9 +1472,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1468,9 +1504,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1514,10 +1550,13 @@
       <c r="O26">
         <v>73.39990234375</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>95.39990234375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1532,9 +1571,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1561,9 +1600,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1602,9 +1641,9 @@
         <v>44.4599609375</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1640,9 +1679,9 @@
         <v>69.14990234375</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1666,9 +1705,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1712,10 +1751,13 @@
       <c r="O32">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32">
+        <v>94.60009765625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1758,6 +1800,9 @@
       </c>
       <c r="O33">
         <v>72.39990234375</v>
+      </c>
+      <c r="P33">
+        <v>100.7998046875</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Rodada 15</t>
+  </si>
+  <si>
+    <t>Rodada 16</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -512,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,10 +567,13 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -600,9 +606,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -650,9 +656,9 @@
         <v>88.490234375</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -697,9 +703,9 @@
         <v>64.7998046875</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -741,9 +747,9 @@
         <v>70.2099609375</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -790,10 +796,13 @@
       <c r="P6">
         <v>104.2001953125</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>75.06005859375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -826,9 +835,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -875,10 +884,13 @@
       <c r="P8">
         <v>108.7001953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>66.66015625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -925,10 +937,13 @@
       <c r="P9">
         <v>92.68994140625</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>69.509765625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -975,18 +990,21 @@
       <c r="P10">
         <v>101.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>79.97021484375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -1033,10 +1051,13 @@
       <c r="P12">
         <v>100.10009765625</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>79.10009765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -1083,10 +1104,13 @@
       <c r="P13">
         <v>101.7998046875</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>74.009765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -1133,10 +1157,13 @@
       <c r="P14">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>80.35009765625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -1184,9 +1211,9 @@
         <v>81.2001953125</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1195,9 +1222,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1233,9 +1260,9 @@
         <v>72.16015625</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1247,9 +1274,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1294,9 +1321,9 @@
         <v>66.39990234375</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1335,9 +1362,9 @@
         <v>40.739990234375</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1379,9 +1406,9 @@
         <v>79.41015625</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1428,10 +1455,13 @@
       <c r="P22">
         <v>89.7998046875</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>70.97021484375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1449,9 +1479,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1472,9 +1502,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1504,9 +1534,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1553,10 +1583,13 @@
       <c r="P26">
         <v>95.39990234375</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>76.81005859375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1571,9 +1604,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1600,9 +1633,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1641,9 +1674,9 @@
         <v>44.4599609375</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1679,9 +1712,9 @@
         <v>69.14990234375</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1705,9 +1738,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1754,10 +1787,13 @@
       <c r="P32">
         <v>94.60009765625</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>71.35986328125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1803,6 +1839,9 @@
       </c>
       <c r="P33">
         <v>100.7998046875</v>
+      </c>
+      <c r="Q33">
+        <v>79.91015625</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Rodada 16</t>
+  </si>
+  <si>
+    <t>Rodada 17</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -515,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,10 +573,13 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -606,9 +612,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -656,9 +662,9 @@
         <v>88.490234375</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -703,9 +709,9 @@
         <v>64.7998046875</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -747,9 +753,9 @@
         <v>70.2099609375</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -799,10 +805,13 @@
       <c r="Q6">
         <v>75.06005859375</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>58.510009765625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -835,9 +844,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -888,9 +897,9 @@
         <v>66.66015625</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -941,9 +950,9 @@
         <v>69.509765625</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -993,18 +1002,21 @@
       <c r="Q10">
         <v>79.97021484375</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>53.2099609375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -1054,10 +1066,13 @@
       <c r="Q12">
         <v>79.10009765625</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>48.81005859375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -1107,10 +1122,13 @@
       <c r="Q13">
         <v>74.009765625</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>47.510009765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -1160,10 +1178,13 @@
       <c r="Q14">
         <v>80.35009765625</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>44.159912109375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -1211,9 +1232,9 @@
         <v>81.2001953125</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1222,9 +1243,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1260,9 +1281,9 @@
         <v>72.16015625</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1274,9 +1295,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1321,9 +1342,9 @@
         <v>66.39990234375</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1362,9 +1383,9 @@
         <v>40.739990234375</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1406,9 +1427,9 @@
         <v>79.41015625</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1458,10 +1479,13 @@
       <c r="Q22">
         <v>70.97021484375</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>56.31005859375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1479,9 +1503,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1502,9 +1526,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1534,9 +1558,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1586,10 +1610,13 @@
       <c r="Q26">
         <v>76.81005859375</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>57.510009765625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1604,9 +1631,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1633,9 +1660,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1674,9 +1701,9 @@
         <v>44.4599609375</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1712,9 +1739,9 @@
         <v>69.14990234375</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1738,9 +1765,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1790,10 +1817,13 @@
       <c r="Q32">
         <v>71.35986328125</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>54.2099609375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1842,6 +1872,9 @@
       </c>
       <c r="Q33">
         <v>79.91015625</v>
+      </c>
+      <c r="R33">
+        <v>51.31005859375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Rodada 17</t>
+  </si>
+  <si>
+    <t>Rodada 18</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -518,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,10 +579,13 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -612,9 +618,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -662,9 +668,9 @@
         <v>88.490234375</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -709,9 +715,9 @@
         <v>64.7998046875</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -753,9 +759,9 @@
         <v>70.2099609375</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -808,10 +814,13 @@
       <c r="R6">
         <v>58.510009765625</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>78.8701171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -844,9 +853,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -897,9 +906,9 @@
         <v>66.66015625</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -950,9 +959,9 @@
         <v>69.509765625</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -1005,18 +1014,21 @@
       <c r="R10">
         <v>53.2099609375</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>98.10009765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -1069,10 +1081,13 @@
       <c r="R12">
         <v>48.81005859375</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>74.39990234375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -1126,9 +1141,9 @@
         <v>47.510009765625</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -1182,9 +1197,9 @@
         <v>44.159912109375</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -1232,9 +1247,9 @@
         <v>81.2001953125</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1243,9 +1258,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1281,9 +1296,9 @@
         <v>72.16015625</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1295,9 +1310,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1342,9 +1357,9 @@
         <v>66.39990234375</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1383,9 +1398,9 @@
         <v>40.739990234375</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1427,9 +1442,9 @@
         <v>79.41015625</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1482,10 +1497,13 @@
       <c r="R22">
         <v>56.31005859375</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <v>124.2998046875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1503,9 +1521,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1526,9 +1544,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1558,9 +1576,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1613,10 +1631,13 @@
       <c r="R26">
         <v>57.510009765625</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1631,9 +1652,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1660,9 +1681,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1701,9 +1722,9 @@
         <v>44.4599609375</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1739,9 +1760,9 @@
         <v>69.14990234375</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1765,9 +1786,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1820,10 +1841,13 @@
       <c r="R32">
         <v>54.2099609375</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1875,6 +1899,9 @@
       </c>
       <c r="R33">
         <v>51.31005859375</v>
+      </c>
+      <c r="S33">
+        <v>109.39990234375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Pontuacoes_Por_Rodada_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Rodada 18</t>
+  </si>
+  <si>
+    <t>Rodada 19</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -521,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,10 +585,13 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>79.2998046875</v>
@@ -618,9 +624,9 @@
         <v>40.77001953125</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>77.580078125</v>
@@ -668,9 +674,9 @@
         <v>88.490234375</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>64.08984375</v>
@@ -715,9 +721,9 @@
         <v>64.7998046875</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -759,9 +765,9 @@
         <v>70.2099609375</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>72.58984375</v>
@@ -817,10 +823,13 @@
       <c r="S6">
         <v>78.8701171875</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>69.10009765625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>95.22998046875</v>
@@ -853,9 +862,9 @@
         <v>53.3701171875</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>75.330078125</v>
@@ -906,9 +915,9 @@
         <v>66.66015625</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>67.990234375</v>
@@ -959,9 +968,9 @@
         <v>69.509765625</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>84.68994140625</v>
@@ -1017,18 +1026,21 @@
       <c r="S10">
         <v>98.10009765625</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>56.6298828125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>60.550048828125</v>
@@ -1085,9 +1097,9 @@
         <v>74.39990234375</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>67.68994140625</v>
@@ -1141,9 +1153,9 @@
         <v>47.510009765625</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>72.3798828125</v>
@@ -1197,9 +1209,9 @@
         <v>44.159912109375</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>61.550048828125</v>
@@ -1247,9 +1259,9 @@
         <v>81.2001953125</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>63.5</v>
@@ -1258,9 +1270,9 @@
         <v>46.919921875</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>73.77978515625</v>
@@ -1296,9 +1308,9 @@
         <v>72.16015625</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>68.39990234375</v>
@@ -1310,9 +1322,9 @@
         <v>38.219970703125</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>64.7900390625</v>
@@ -1357,9 +1369,9 @@
         <v>66.39990234375</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>63.64990234375</v>
@@ -1398,9 +1410,9 @@
         <v>40.739990234375</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>66.60009765625</v>
@@ -1442,9 +1454,9 @@
         <v>79.41015625</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>74.08984375</v>
@@ -1500,10 +1512,13 @@
       <c r="S22">
         <v>124.2998046875</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>67.14013671875</v>
@@ -1521,9 +1536,9 @@
         <v>59.919921875</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>72.2900390625</v>
@@ -1544,9 +1559,9 @@
         <v>48.840087890625</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>69.4501953125</v>
@@ -1576,9 +1591,9 @@
         <v>56.8701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>66.5</v>
@@ -1634,10 +1649,13 @@
       <c r="S26">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>60.429931640625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>61.14990234375</v>
@@ -1652,9 +1670,9 @@
         <v>51.6298828125</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>68.47998046875</v>
@@ -1681,9 +1699,9 @@
         <v>46.89990234375</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>100.33984375</v>
@@ -1722,9 +1740,9 @@
         <v>44.4599609375</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1760,9 +1778,9 @@
         <v>69.14990234375</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>82.68017578125</v>
@@ -1786,9 +1804,9 @@
         <v>79.7001953125</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>77.0498046875</v>
@@ -1845,9 +1863,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -1902,6 +1920,9 @@
       </c>
       <c r="S33">
         <v>109.39990234375</v>
+      </c>
+      <c r="T33">
+        <v>74.10009765625</v>
       </c>
     </row>
   </sheetData>
